--- a/Data Dict.xlsx
+++ b/Data Dict.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wsc2017\Kumpul\Arrival\Modul 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\Visual Studio 2013\Projects\TO1_SMK_Restaurant\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="85">
   <si>
     <t>Employee</t>
   </si>
@@ -653,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F96"/>
+  <dimension ref="B2:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,168 +1404,168 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>64</v>
-      </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>13</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>48</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>49</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>84</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>65</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>22</v>
       </c>
-      <c r="E76" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="E77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>13</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>45</v>
       </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" t="s">
-        <v>84</v>
-      </c>
-      <c r="F77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>66</v>
-      </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E78" t="s">
         <v>84</v>
       </c>
+      <c r="F78" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>13</v>
-      </c>
       <c r="C79" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E79" t="s">
         <v>84</v>
       </c>
-      <c r="F79" t="s">
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>68</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>31</v>
       </c>
-      <c r="E80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
+      <c r="E81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>1</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>70</v>
       </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>71</v>
-      </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E85" t="s">
         <v>83</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E86" t="s">
         <v>83</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -1595,10 +1595,10 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D88" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
         <v>83</v>
@@ -1606,74 +1606,74 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
+        <v>73</v>
+      </c>
+      <c r="D89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
         <v>74</v>
       </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>13</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>45</v>
       </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" t="s">
-        <v>83</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>83</v>
+      </c>
+      <c r="F91" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="2" t="s">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>1</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>54</v>
       </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>76</v>
-      </c>
       <c r="D95" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E95" t="s">
         <v>83</v>
@@ -1681,12 +1681,23 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
       </c>
       <c r="E96" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" t="s">
         <v>83</v>
       </c>
     </row>
